--- a/기존 반편성 vba/장대중/장대중_1_반편성 Compact.xlsx
+++ b/기존 반편성 vba/장대중/장대중_1_반편성 Compact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\group_classification\기존 반편성 vba\장대중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05922F0D-27C8-4D20-BCA1-C0597B6B2EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCFBEDD-78D6-4289-B52F-8A9B675C1DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13FCD66D-16AC-4EAE-9446-A1D1023C66D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="333">
   <si>
     <t>학교명</t>
   </si>
@@ -192,6 +192,852 @@
   </si>
   <si>
     <t>해석</t>
+  </si>
+  <si>
+    <t>노지원</t>
+  </si>
+  <si>
+    <t>박혜빈</t>
+  </si>
+  <si>
+    <t>성민주</t>
+  </si>
+  <si>
+    <t>안혜영</t>
+  </si>
+  <si>
+    <t>우지민</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>이단희</t>
+  </si>
+  <si>
+    <t>이도연</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>이지향</t>
+  </si>
+  <si>
+    <t>정지원</t>
+  </si>
+  <si>
+    <t>김범준</t>
+  </si>
+  <si>
+    <t>김동준</t>
+  </si>
+  <si>
+    <t>김시몬</t>
+  </si>
+  <si>
+    <t>박시영</t>
+  </si>
+  <si>
+    <t>배준서</t>
+  </si>
+  <si>
+    <t>백승현</t>
+  </si>
+  <si>
+    <t>봉승민</t>
+  </si>
+  <si>
+    <t>안재희</t>
+  </si>
+  <si>
+    <t>윤현진</t>
+  </si>
+  <si>
+    <t>이지학</t>
+  </si>
+  <si>
+    <t>이훈희</t>
+  </si>
+  <si>
+    <t>임도균</t>
+  </si>
+  <si>
+    <t>최병주</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>권보예</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>김소희</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>배수민</t>
+  </si>
+  <si>
+    <t>원이빈</t>
+  </si>
+  <si>
+    <t>이유진</t>
+  </si>
+  <si>
+    <t>이은서</t>
+  </si>
+  <si>
+    <t>이지윤</t>
+  </si>
+  <si>
+    <t>임지유</t>
+  </si>
+  <si>
+    <t>정지유</t>
+  </si>
+  <si>
+    <t>조아름</t>
+  </si>
+  <si>
+    <t>황시현</t>
+  </si>
+  <si>
+    <t>강민우</t>
+  </si>
+  <si>
+    <t>김도영</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>김환희</t>
+  </si>
+  <si>
+    <t>목하균</t>
+  </si>
+  <si>
+    <t>왕원호</t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>이재욱</t>
+  </si>
+  <si>
+    <t>이환</t>
+  </si>
+  <si>
+    <t>임승민</t>
+  </si>
+  <si>
+    <t>장재혁</t>
+  </si>
+  <si>
+    <t>전민구</t>
+  </si>
+  <si>
+    <t>조영광</t>
+  </si>
+  <si>
+    <t>황현우</t>
+  </si>
+  <si>
+    <t>권동근</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>명지혜</t>
+  </si>
+  <si>
+    <t>문정민</t>
+  </si>
+  <si>
+    <t>박혜림</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>서유림</t>
+  </si>
+  <si>
+    <t>소유빈</t>
+  </si>
+  <si>
+    <t>송정아</t>
+  </si>
+  <si>
+    <t>이가은</t>
+  </si>
+  <si>
+    <t>이새봄</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>최윤정</t>
+  </si>
+  <si>
+    <t>홍연주</t>
+  </si>
+  <si>
+    <t>홍예림</t>
+  </si>
+  <si>
+    <t>강민서</t>
+  </si>
+  <si>
+    <t>고준서</t>
+  </si>
+  <si>
+    <t>김민재</t>
+  </si>
+  <si>
+    <t>김태윤</t>
+  </si>
+  <si>
+    <t>박다옴</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>박지호</t>
+  </si>
+  <si>
+    <t>방성재</t>
+  </si>
+  <si>
+    <t>배준한</t>
+  </si>
+  <si>
+    <t>신동민</t>
+  </si>
+  <si>
+    <t>윤재원</t>
+  </si>
+  <si>
+    <t>이서진</t>
+  </si>
+  <si>
+    <t>임혜준</t>
+  </si>
+  <si>
+    <t>정환희</t>
+  </si>
+  <si>
+    <t>최형민</t>
+  </si>
+  <si>
+    <t>김하진</t>
+  </si>
+  <si>
+    <t>노은채</t>
+  </si>
+  <si>
+    <t>박가은</t>
+  </si>
+  <si>
+    <t>배서연</t>
+  </si>
+  <si>
+    <t>백지우</t>
+  </si>
+  <si>
+    <t>윤예영</t>
+  </si>
+  <si>
+    <t>이다은</t>
+  </si>
+  <si>
+    <t>이채영</t>
+  </si>
+  <si>
+    <t>전혜리</t>
+  </si>
+  <si>
+    <t>정유빈</t>
+  </si>
+  <si>
+    <t>정윤아</t>
+  </si>
+  <si>
+    <t>정채연</t>
+  </si>
+  <si>
+    <t>최인서</t>
+  </si>
+  <si>
+    <t>한주미</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>김동윤</t>
+  </si>
+  <si>
+    <t>김호태</t>
+  </si>
+  <si>
+    <t>노건우</t>
+  </si>
+  <si>
+    <t>도현수</t>
+  </si>
+  <si>
+    <t>박재우</t>
+  </si>
+  <si>
+    <t>신재원</t>
+  </si>
+  <si>
+    <t>윤기영</t>
+  </si>
+  <si>
+    <t>이민성</t>
+  </si>
+  <si>
+    <t>이민우</t>
+  </si>
+  <si>
+    <t>이성원</t>
+  </si>
+  <si>
+    <t>정이찬</t>
+  </si>
+  <si>
+    <t>천예준</t>
+  </si>
+  <si>
+    <t>홍지호</t>
+  </si>
+  <si>
+    <t>강보경</t>
+  </si>
+  <si>
+    <t>고근영</t>
+  </si>
+  <si>
+    <t>국은지</t>
+  </si>
+  <si>
+    <t>김서연</t>
+  </si>
+  <si>
+    <t>김서윤</t>
+  </si>
+  <si>
+    <t>김지호</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>박지인</t>
+  </si>
+  <si>
+    <t>서경란</t>
+  </si>
+  <si>
+    <t>송해린</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>이은교</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>강동기</t>
+  </si>
+  <si>
+    <t>권원준</t>
+  </si>
+  <si>
+    <t>김태산</t>
+  </si>
+  <si>
+    <t>문찬호</t>
+  </si>
+  <si>
+    <t>송지민</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>윤현빈</t>
+  </si>
+  <si>
+    <t>이정하</t>
+  </si>
+  <si>
+    <t>이준오</t>
+  </si>
+  <si>
+    <t>임채민</t>
+  </si>
+  <si>
+    <t>전원규</t>
+  </si>
+  <si>
+    <t>정우진</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>진현우</t>
+  </si>
+  <si>
+    <t>한태훈</t>
+  </si>
+  <si>
+    <t>이예원</t>
+  </si>
+  <si>
+    <t>국경이</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>김아현</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>김하랑</t>
+  </si>
+  <si>
+    <t>서효빈</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>임수미</t>
+  </si>
+  <si>
+    <t>정채미</t>
+  </si>
+  <si>
+    <t>정희진</t>
+  </si>
+  <si>
+    <t>현시영</t>
+  </si>
+  <si>
+    <t>황한별</t>
+  </si>
+  <si>
+    <t>김완</t>
+  </si>
+  <si>
+    <t>남병현</t>
+  </si>
+  <si>
+    <t>문승두</t>
+  </si>
+  <si>
+    <t>박지유</t>
+  </si>
+  <si>
+    <t>손성현</t>
+  </si>
+  <si>
+    <t>유연태</t>
+  </si>
+  <si>
+    <t>은세원</t>
+  </si>
+  <si>
+    <t>이동주</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>인예관</t>
+  </si>
+  <si>
+    <t>임현서</t>
+  </si>
+  <si>
+    <t>전희재</t>
+  </si>
+  <si>
+    <t>정가람</t>
+  </si>
+  <si>
+    <t>최서현</t>
+  </si>
+  <si>
+    <t>김가영</t>
+  </si>
+  <si>
+    <t>김가윤</t>
+  </si>
+  <si>
+    <t>문서희</t>
+  </si>
+  <si>
+    <t>안슬기</t>
+  </si>
+  <si>
+    <t>오나경</t>
+  </si>
+  <si>
+    <t>오채린</t>
+  </si>
+  <si>
+    <t>이서현</t>
+  </si>
+  <si>
+    <t>이준경</t>
+  </si>
+  <si>
+    <t>전혜민</t>
+  </si>
+  <si>
+    <t>정주은</t>
+  </si>
+  <si>
+    <t>조하은</t>
+  </si>
+  <si>
+    <t>최은주</t>
+  </si>
+  <si>
+    <t>최인영</t>
+  </si>
+  <si>
+    <t>한서연</t>
+  </si>
+  <si>
+    <t>김덕일</t>
+  </si>
+  <si>
+    <t>김재석</t>
+  </si>
+  <si>
+    <t>김태규</t>
+  </si>
+  <si>
+    <t>김태양</t>
+  </si>
+  <si>
+    <t>도현준</t>
+  </si>
+  <si>
+    <t>박건희</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>윤선호</t>
+  </si>
+  <si>
+    <t>이다한</t>
+  </si>
+  <si>
+    <t>이병조</t>
+  </si>
+  <si>
+    <t>정건우</t>
+  </si>
+  <si>
+    <t>정휘우</t>
+  </si>
+  <si>
+    <t>주건우</t>
+  </si>
+  <si>
+    <t>홍준기</t>
+  </si>
+  <si>
+    <t>김재헌</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>김보라</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>김여진</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>김하늘</t>
+  </si>
+  <si>
+    <t>류다현</t>
+  </si>
+  <si>
+    <t>백지혜</t>
+  </si>
+  <si>
+    <t>설이담</t>
+  </si>
+  <si>
+    <t>송민아</t>
+  </si>
+  <si>
+    <t>염원</t>
+  </si>
+  <si>
+    <t>정아영</t>
+  </si>
+  <si>
+    <t>정예빈</t>
+  </si>
+  <si>
+    <t>진혜주</t>
+  </si>
+  <si>
+    <t>김정원</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>두서율</t>
+  </si>
+  <si>
+    <t>류재환</t>
+  </si>
+  <si>
+    <t>설예환</t>
+  </si>
+  <si>
+    <t>신인철</t>
+  </si>
+  <si>
+    <t>오현빈</t>
+  </si>
+  <si>
+    <t>이동건</t>
+  </si>
+  <si>
+    <t>이연빈</t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>이현준</t>
+  </si>
+  <si>
+    <t>전우현</t>
+  </si>
+  <si>
+    <t>정문경</t>
+  </si>
+  <si>
+    <t>구나경</t>
+  </si>
+  <si>
+    <t>기현희</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>김해원</t>
+  </si>
+  <si>
+    <t>김현수</t>
+  </si>
+  <si>
+    <t>우지수</t>
+  </si>
+  <si>
+    <t>이아현</t>
+  </si>
+  <si>
+    <t>이윤희</t>
+  </si>
+  <si>
+    <t>장혜리</t>
+  </si>
+  <si>
+    <t>정선영</t>
+  </si>
+  <si>
+    <t>정재희</t>
+  </si>
+  <si>
+    <t>최고은</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>하수빈</t>
+  </si>
+  <si>
+    <t>황보</t>
+  </si>
+  <si>
+    <t>고건중</t>
+  </si>
+  <si>
+    <t>김시혁</t>
+  </si>
+  <si>
+    <t>박건</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>박정서</t>
+  </si>
+  <si>
+    <t>변아성</t>
+  </si>
+  <si>
+    <t>변영준</t>
+  </si>
+  <si>
+    <t>봉승준</t>
+  </si>
+  <si>
+    <t>유준수</t>
+  </si>
+  <si>
+    <t>유창현</t>
+  </si>
+  <si>
+    <t>윤하셉</t>
+  </si>
+  <si>
+    <t>이인용</t>
+  </si>
+  <si>
+    <t>정진욱</t>
+  </si>
+  <si>
+    <t>서정민</t>
+  </si>
+  <si>
+    <t>권은선</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>김도경</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>문지유</t>
+  </si>
+  <si>
+    <t>박소윤</t>
+  </si>
+  <si>
+    <t>이새안</t>
+  </si>
+  <si>
+    <t>이은임</t>
+  </si>
+  <si>
+    <t>정진이</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>호유진</t>
+  </si>
+  <si>
+    <t>강선우</t>
+  </si>
+  <si>
+    <t>강현우</t>
+  </si>
+  <si>
+    <t>고욱진</t>
+  </si>
+  <si>
+    <t>김윤규</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>송민욱</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>정기혁</t>
+  </si>
+  <si>
+    <t>조승빈</t>
+  </si>
+  <si>
+    <t>차승인</t>
+  </si>
+  <si>
+    <t>편중운</t>
+  </si>
+  <si>
+    <t>하승민</t>
   </si>
 </sst>
 </file>
@@ -382,7 +1228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,13 +1240,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,8 +1586,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,22 +1624,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -830,12 +1676,12 @@
       <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
@@ -886,82 +1732,82 @@
       <c r="AD2" s="7"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1344,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -1436,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -1528,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -1620,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1712,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1804,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -1896,7 +2742,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -1988,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -2080,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
@@ -2172,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -2264,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -2356,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
@@ -2448,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>25</v>
@@ -2540,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>19</v>
@@ -2632,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -2724,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>23</v>
@@ -2816,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>25</v>
@@ -2908,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>19</v>
@@ -3000,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
@@ -3092,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -3184,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>25</v>
@@ -3276,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
@@ -3368,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -3460,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>23</v>
@@ -3552,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>25</v>
@@ -3644,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>19</v>
@@ -3736,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
@@ -3828,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>23</v>
@@ -3920,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>25</v>
@@ -4012,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>19</v>
@@ -4104,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -4196,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>23</v>
@@ -4288,7 +5134,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>25</v>
@@ -4380,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>19</v>
@@ -4472,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -4564,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>23</v>
@@ -4656,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>25</v>
@@ -4748,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>19</v>
@@ -4840,7 +5686,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
@@ -4932,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>23</v>
@@ -5024,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>25</v>
@@ -5116,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>19</v>
@@ -5208,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
@@ -5300,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>23</v>
@@ -5392,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>25</v>
@@ -5484,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
@@ -5576,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -5668,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>23</v>
@@ -5760,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>25</v>
@@ -5852,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>19</v>
@@ -5944,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -6036,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>23</v>
@@ -6128,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>25</v>
@@ -6220,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>19</v>
@@ -6312,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
@@ -6404,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
@@ -6496,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>25</v>
@@ -6588,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>19</v>
@@ -6680,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -6772,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>23</v>
@@ -6864,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>25</v>
@@ -6956,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>19</v>
@@ -7048,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
@@ -7140,7 +7986,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>23</v>
@@ -7232,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>25</v>
@@ -7324,7 +8170,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>19</v>
@@ -7416,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>21</v>
@@ -7508,7 +8354,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>23</v>
@@ -7600,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>25</v>
@@ -7692,7 +8538,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
@@ -7784,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>21</v>
@@ -7876,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>23</v>
@@ -7968,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>25</v>
@@ -8060,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>19</v>
@@ -8152,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>21</v>
@@ -8244,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>23</v>
@@ -8336,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>25</v>
@@ -8428,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>19</v>
@@ -8520,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>21</v>
@@ -8612,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>23</v>
@@ -8704,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>25</v>
@@ -8796,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>19</v>
@@ -8888,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>21</v>
@@ -8980,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>23</v>
@@ -9072,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>25</v>
@@ -9164,7 +10010,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>19</v>
@@ -9256,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>21</v>
@@ -9348,7 +10194,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>23</v>
@@ -9440,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>25</v>
@@ -9532,7 +10378,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>19</v>
@@ -9624,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>21</v>
@@ -9716,7 +10562,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>23</v>
@@ -9808,7 +10654,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>25</v>
@@ -9900,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>19</v>
@@ -9992,7 +10838,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>21</v>
@@ -10084,7 +10930,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>23</v>
@@ -10176,7 +11022,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>25</v>
@@ -10268,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>19</v>
@@ -10360,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>21</v>
@@ -10452,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>23</v>
@@ -10544,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>25</v>
@@ -10636,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>19</v>
@@ -10728,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>21</v>
@@ -10820,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>23</v>
@@ -10912,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>25</v>
@@ -11004,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>19</v>
@@ -11096,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>21</v>
@@ -11188,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>23</v>
@@ -11280,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>25</v>
@@ -11372,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>19</v>
@@ -11464,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>21</v>
@@ -11556,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>23</v>
@@ -11648,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>25</v>
@@ -11740,7 +12586,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>19</v>
@@ -11832,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>21</v>
@@ -11924,7 +12770,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>23</v>
@@ -12016,7 +12862,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>25</v>
@@ -12108,7 +12954,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>19</v>
@@ -12200,7 +13046,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>21</v>
@@ -12384,7 +13230,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>25</v>
@@ -12476,7 +13322,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>19</v>
@@ -12568,7 +13414,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>21</v>
@@ -12660,7 +13506,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>23</v>
@@ -12752,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>25</v>
@@ -12844,7 +13690,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>19</v>
@@ -12936,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>21</v>
@@ -13028,7 +13874,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>23</v>
@@ -13120,7 +13966,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>25</v>
@@ -13212,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>19</v>
@@ -13304,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>21</v>
@@ -13396,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>23</v>
@@ -13488,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>25</v>
@@ -13580,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>19</v>
@@ -13672,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>21</v>
@@ -13764,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>23</v>
@@ -13856,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>25</v>
@@ -13948,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>19</v>
@@ -14040,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>21</v>
@@ -14132,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>23</v>
@@ -14224,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>25</v>
@@ -14316,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>19</v>
@@ -14408,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>21</v>
@@ -14500,7 +15346,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>23</v>
@@ -14592,7 +15438,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>25</v>
@@ -14684,7 +15530,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>19</v>
@@ -14776,7 +15622,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>21</v>
@@ -14868,7 +15714,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>23</v>
@@ -14960,7 +15806,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>25</v>
@@ -15052,7 +15898,7 @@
         <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>19</v>
@@ -15144,7 +15990,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>21</v>
@@ -15236,7 +16082,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>23</v>
@@ -15328,7 +16174,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>25</v>
@@ -15420,7 +16266,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>19</v>
@@ -15512,7 +16358,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>21</v>
@@ -15604,7 +16450,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>23</v>
@@ -15696,7 +16542,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>25</v>
@@ -15788,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>19</v>
@@ -15880,7 +16726,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>21</v>
@@ -15972,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>23</v>
@@ -16064,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>25</v>
@@ -16156,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>19</v>
@@ -16248,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>21</v>
@@ -16340,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>23</v>
@@ -16432,7 +17278,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>25</v>
@@ -16524,7 +17370,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>19</v>
@@ -16616,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>21</v>
@@ -16708,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>23</v>
@@ -16800,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>25</v>
@@ -16892,7 +17738,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>19</v>
@@ -16984,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>21</v>
@@ -17076,7 +17922,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>23</v>
@@ -17168,7 +18014,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>25</v>
@@ -17260,7 +18106,7 @@
         <v>2</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>19</v>
@@ -17352,7 +18198,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>21</v>
@@ -17444,7 +18290,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>23</v>
@@ -17536,7 +18382,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>25</v>
@@ -17628,7 +18474,7 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>19</v>
@@ -17720,7 +18566,7 @@
         <v>2</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>21</v>
@@ -17812,7 +18658,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>23</v>
@@ -17904,7 +18750,7 @@
         <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>25</v>
@@ -17996,7 +18842,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>19</v>
@@ -18088,7 +18934,7 @@
         <v>2</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>21</v>
@@ -18180,7 +19026,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>23</v>
@@ -18272,7 +19118,7 @@
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>25</v>
@@ -18364,7 +19210,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>19</v>
@@ -18456,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>21</v>
@@ -18548,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>23</v>
@@ -18640,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>25</v>
@@ -18732,7 +19578,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>19</v>
@@ -18824,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>21</v>
@@ -18916,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>23</v>
@@ -19008,7 +19854,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>25</v>
@@ -19100,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>19</v>
@@ -19192,7 +20038,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>21</v>
@@ -19284,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>23</v>
@@ -19376,7 +20222,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>25</v>
@@ -19468,7 +20314,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>19</v>
@@ -19560,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>21</v>
@@ -19652,7 +20498,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>23</v>
@@ -19744,7 +20590,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>25</v>
@@ -19836,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>19</v>
@@ -19928,7 +20774,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>21</v>
@@ -20020,7 +20866,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>23</v>
@@ -20112,7 +20958,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>25</v>
@@ -20204,7 +21050,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>19</v>
@@ -20296,7 +21142,7 @@
         <v>2</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>21</v>
@@ -20388,7 +21234,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>23</v>
@@ -20480,7 +21326,7 @@
         <v>2</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>25</v>
@@ -20572,7 +21418,7 @@
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>19</v>
@@ -20664,7 +21510,7 @@
         <v>2</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>21</v>
@@ -20756,7 +21602,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>23</v>
@@ -20848,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>25</v>
@@ -20940,7 +21786,7 @@
         <v>2</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>19</v>
@@ -21032,7 +21878,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>21</v>
@@ -21124,7 +21970,7 @@
         <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>23</v>
@@ -21216,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>25</v>
@@ -21308,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>19</v>
@@ -21400,7 +22246,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>21</v>
@@ -21492,7 +22338,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>23</v>
@@ -21584,7 +22430,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>25</v>
@@ -21676,7 +22522,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>19</v>
@@ -21768,7 +22614,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>21</v>
@@ -21860,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>23</v>
@@ -21952,7 +22798,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>25</v>
@@ -22044,7 +22890,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>19</v>
@@ -22136,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>21</v>
@@ -22228,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>23</v>
@@ -22320,7 +23166,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>25</v>
@@ -22412,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>19</v>
@@ -22596,7 +23442,7 @@
         <v>2</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>23</v>
@@ -22688,7 +23534,7 @@
         <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>25</v>
@@ -22780,7 +23626,7 @@
         <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>19</v>
@@ -22872,7 +23718,7 @@
         <v>2</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>21</v>
@@ -22964,7 +23810,7 @@
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>6</v>
+        <v>281</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>23</v>
@@ -23056,7 +23902,7 @@
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>25</v>
@@ -23148,7 +23994,7 @@
         <v>2</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>19</v>
@@ -23240,7 +24086,7 @@
         <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>21</v>
@@ -23332,7 +24178,7 @@
         <v>2</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>23</v>
@@ -23424,7 +24270,7 @@
         <v>2</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>25</v>
@@ -23516,7 +24362,7 @@
         <v>2</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>19</v>
@@ -23608,7 +24454,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>21</v>
@@ -23700,7 +24546,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>23</v>
@@ -23792,7 +24638,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>25</v>
@@ -23884,7 +24730,7 @@
         <v>2</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>19</v>
@@ -23976,7 +24822,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>21</v>
@@ -24068,7 +24914,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>23</v>
@@ -24160,7 +25006,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>25</v>
@@ -24252,7 +25098,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>19</v>
@@ -24344,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>21</v>
@@ -24436,7 +25282,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>23</v>
@@ -24528,7 +25374,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>25</v>
@@ -24620,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>19</v>
@@ -24712,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>21</v>
@@ -24804,7 +25650,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>23</v>
@@ -24896,7 +25742,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>25</v>
@@ -24988,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>19</v>
@@ -25080,7 +25926,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>21</v>
@@ -25172,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>23</v>
@@ -25264,7 +26110,7 @@
         <v>2</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>25</v>
@@ -25356,7 +26202,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>19</v>
@@ -25448,7 +26294,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>21</v>
@@ -25540,7 +26386,7 @@
         <v>2</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>23</v>
@@ -25632,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>25</v>
@@ -25724,7 +26570,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>19</v>
@@ -25816,7 +26662,7 @@
         <v>2</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>21</v>
@@ -25908,7 +26754,7 @@
         <v>2</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>23</v>
@@ -26000,7 +26846,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>25</v>
@@ -26092,7 +26938,7 @@
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>19</v>
@@ -26184,7 +27030,7 @@
         <v>2</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>21</v>
@@ -26276,7 +27122,7 @@
         <v>2</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>23</v>
@@ -26368,7 +27214,7 @@
         <v>2</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>25</v>
@@ -26460,7 +27306,7 @@
         <v>2</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>19</v>
@@ -26552,7 +27398,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>21</v>
@@ -26644,7 +27490,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>6</v>
+        <v>319</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>23</v>
@@ -26736,7 +27582,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>25</v>
@@ -26828,7 +27674,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>19</v>
@@ -26920,7 +27766,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>21</v>
@@ -27012,7 +27858,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>23</v>
@@ -27104,7 +27950,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>25</v>
@@ -27196,7 +28042,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>19</v>
@@ -27288,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>21</v>
@@ -27380,7 +28226,7 @@
         <v>1</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>23</v>
@@ -27472,7 +28318,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>25</v>
@@ -27564,7 +28410,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>19</v>
@@ -27656,7 +28502,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>21</v>
@@ -27748,7 +28594,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>23</v>
@@ -27840,7 +28686,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>25</v>
@@ -27923,6 +28769,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="W1:AD1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -27937,14 +28791,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
